--- a/Resultados/Escenario 4/objective_value.xlsx
+++ b/Resultados/Escenario 4/objective_value.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>668915.4444682297</v>
+        <v>10121214.45601615</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>772280.0946322703</v>
+        <v>12017483.99317577</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>606704.874788434</v>
+        <v>9809761.24614048</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>597988.9418809757</v>
+        <v>8783359.859336343</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>586752.6210491733</v>
+        <v>9522743.009751055</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>682522.1822962619</v>
+        <v>10187431.39663141</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>596017.7695046526</v>
+        <v>9394314.0094832</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>706514.0650782875</v>
+        <v>9491802.746496208</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>573111.2005473179</v>
+        <v>10061349.85190703</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>605234.1859849186</v>
+        <v>8591333.000409286</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>782818.4785571254</v>
+        <v>11301032.83378609</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>703160.7623353673</v>
+        <v>9380037.201547479</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>589385.5289632119</v>
+        <v>9000286.407695739</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>612568.0891304761</v>
+        <v>9805635.119090179</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>727043.1121761587</v>
+        <v>11261147.84283492</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>884586.8623048214</v>
+        <v>10561682.34652213</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>587519.8853339833</v>
+        <v>9119700.935971383</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>690998.891387183</v>
+        <v>11737792.25787635</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>600734.4068539228</v>
+        <v>10083562.99033217</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>821442.0002644208</v>
+        <v>11117743.58044157</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>828096.3392116801</v>
+        <v>10262620.1733473</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>681028.1144071497</v>
+        <v>9443182.370195087</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>898692.2960363452</v>
+        <v>11563598.2440013</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>665443.6107254142</v>
+        <v>8636981.362643156</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>837133.878219653</v>
+        <v>11488807.89226825</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>638842.6637302326</v>
+        <v>9527267.252608093</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>708157.052879998</v>
+        <v>10495853.34362318</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>577605.6261314417</v>
+        <v>9750501.874639586</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>600266.4536739518</v>
+        <v>9665110.851702543</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>562220.8163156213</v>
+        <v>8937780.397753557</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>681709.7497492789</v>
+        <v>10520328.29053555</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>683165.5254796402</v>
+        <v>10818773.46229054</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>670498.3468944358</v>
+        <v>10273977.08149616</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>688919.0615682148</v>
+        <v>10650131.44757339</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>669432.9992064144</v>
+        <v>8771293.861955358</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>645255.1821145186</v>
+        <v>9901022.257478997</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>790037.0757660085</v>
+        <v>10249821.26626494</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>688935.8534019695</v>
+        <v>10892391.83803213</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>460247.1058001947</v>
+        <v>7785647.473677382</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>602326.8442517433</v>
+        <v>9943559.011867434</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>801968.4224883654</v>
+        <v>9795468.637824105</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>540760.0725389341</v>
+        <v>8973316.448378975</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>739030.823959196</v>
+        <v>10897558.18902128</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>718880.8666729083</v>
+        <v>10640022.03132015</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>554188.2404416567</v>
+        <v>9220008.644764395</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>544482.8366688929</v>
+        <v>8622876.552415239</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>754746.5012015173</v>
+        <v>11250432.18566709</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>804728.0118326667</v>
+        <v>11536881.91035612</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>742376.6771632421</v>
+        <v>10715373.48728228</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>697632.7401965611</v>
+        <v>9965643.081599629</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>808857.3600661203</v>
+        <v>9812899.3514494</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>850065.7916645806</v>
+        <v>9663323.681180095</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>804275.2683885922</v>
+        <v>10641804.89763021</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>740533.2123719022</v>
+        <v>10055566.29562673</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>903906.5887605513</v>
+        <v>11203703.22280925</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>674798.5763702779</v>
+        <v>8367348.676091435</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>676882.4946748198</v>
+        <v>10762251.74643989</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>718424.8539704827</v>
+        <v>10072386.24715848</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>788696.6168247861</v>
+        <v>11089098.03435021</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>677846.9283539485</v>
+        <v>8990001.080438919</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>510315.0748499924</v>
+        <v>8674301.596641775</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>729717.0274678131</v>
+        <v>10057033.2405447</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>903259.7744715817</v>
+        <v>12198101.27414718</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>544533.7730644722</v>
+        <v>8717399.648174589</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>775679.7225301891</v>
+        <v>11123507.4557712</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>786059.2423355038</v>
+        <v>11413928.84120671</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>622026.6373257289</v>
+        <v>9647465.770526756</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>689172.7499291955</v>
+        <v>9978816.90716007</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>701534.6415772138</v>
+        <v>11063586.5235943</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>526739.8164698795</v>
+        <v>9416364.311384877</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>648660.5499758617</v>
+        <v>9360746.565801412</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>614145.0771626941</v>
+        <v>9811409.838151906</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>634847.4643736604</v>
+        <v>9921566.094473643</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>577339.5489742534</v>
+        <v>8895846.094061309</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>577964.7786002287</v>
+        <v>9154906.033803107</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>498825.8323253874</v>
+        <v>8067337.077059138</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>818398.5493676895</v>
+        <v>10821173.16390799</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>513579.3647098435</v>
+        <v>9243281.965366352</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>925801.3117660971</v>
+        <v>12400428.21253313</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>620977.62559282</v>
+        <v>10081667.2542031</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>939999.5537998109</v>
+        <v>11640755.39310677</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>760596.9396926978</v>
+        <v>9619892.044614879</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>811147.5028716901</v>
+        <v>10229675.63843238</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>903211.0771313946</v>
+        <v>11815855.33892921</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>656249.9053649014</v>
+        <v>9564311.080731252</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>787087.2001954714</v>
+        <v>10968608.3625932</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>614446.108011295</v>
+        <v>9573630.214110432</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>769378.8519420348</v>
+        <v>11789742.53738565</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>723809.9260940247</v>
+        <v>10574659.8663529</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>540936.2558736056</v>
+        <v>9740390.536209203</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>719291.3192107836</v>
+        <v>10513607.95270353</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>699778.7810948301</v>
+        <v>10571520.7140368</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>564173.47884375</v>
+        <v>7997231.15051528</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>619326.639266543</v>
+        <v>10253124.47051654</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>697079.0514317319</v>
+        <v>10756752.4488571</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>860264.1835554403</v>
+        <v>11500504.48561409</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>643017.4020303206</v>
+        <v>10619229.68549599</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>742074.7527552011</v>
+        <v>11129329.95288995</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>542380.7647084513</v>
+        <v>8055291.525326975</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>845712.2470905853</v>
+        <v>9966950.929866174</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>642073.603131499</v>
+        <v>9695858.792319862</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>462529.9248570087</v>
+        <v>9307404.67826548</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>705429.9329284254</v>
+        <v>11157430.0572866</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>858958.4229951906</v>
+        <v>11353992.65696122</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>593822.4236154862</v>
+        <v>9724337.653300487</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>579599.7422637801</v>
+        <v>9482638.515437871</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>869207.1372493069</v>
+        <v>10670559.208306</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>781132.7284953559</v>
+        <v>10742801.79121534</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>624879.6855956686</v>
+        <v>9777726.043909406</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>658456.1023842463</v>
+        <v>10175081.80519416</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>877986.6802145676</v>
+        <v>12419660.45478331</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>536917.9636978764</v>
+        <v>8440624.524356835</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>568025.8749375816</v>
+        <v>8856828.061073404</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>679149.8998232483</v>
+        <v>9326722.987247525</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>854483.703811449</v>
+        <v>11398564.91399531</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>657981.7691804727</v>
+        <v>9326337.954376485</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>675395.9211473091</v>
+        <v>10609019.81327437</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>611201.0995279811</v>
+        <v>11025178.36641486</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>616744.1799546761</v>
+        <v>9866097.196623147</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>748222.7295709051</v>
+        <v>10227607.54430689</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>882311.1169013977</v>
+        <v>11877177.27625192</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>505734.9022891175</v>
+        <v>8127370.62318113</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>674780.659751544</v>
+        <v>9067843.424420007</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>646135.8971142867</v>
+        <v>9064543.516622094</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>654757.0244073377</v>
+        <v>9264655.893328279</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>618479.3977075442</v>
+        <v>9716860.991108507</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>587017.4292943673</v>
+        <v>9879444.71503019</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>633083.1246513657</v>
+        <v>9825586.204634631</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>714079.8151208626</v>
+        <v>9651645.607504709</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>719493.036037361</v>
+        <v>10829817.21266151</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>643031.2215048458</v>
+        <v>9328418.628725713</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>666120.2318418052</v>
+        <v>10391275.91181689</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>644083.8394621182</v>
+        <v>9607171.104313523</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>650415.962636558</v>
+        <v>10711690.51558156</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>882840.938444284</v>
+        <v>11329505.86380121</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>696982.0638009704</v>
+        <v>10456426.0602693</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>636487.7374578761</v>
+        <v>8982845.82747934</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>753497.0292564075</v>
+        <v>10964546.26558253</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>736473.7494907593</v>
+        <v>9946011.72603232</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>780825.4066160424</v>
+        <v>10897110.43265411</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>797176.8581151048</v>
+        <v>10021466.1635571</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>847752.6934310205</v>
+        <v>10808474.57564273</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>561453.1460496815</v>
+        <v>8824370.819728022</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>817800.3224014917</v>
+        <v>10226909.79507187</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>625596.6483742294</v>
+        <v>8282452.534040681</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>774136.6037139196</v>
+        <v>10551375.80190682</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>719599.2786435772</v>
+        <v>10461760.28120992</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>681411.2625795589</v>
+        <v>9278645.606626941</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>645359.1698771409</v>
+        <v>10964459.1183534</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>677134.576091602</v>
+        <v>9790872.090932408</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>576306.5768882672</v>
+        <v>9569260.877234308</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>690765.2936482823</v>
+        <v>10166775.94713984</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>685026.5070680802</v>
+        <v>10462744.34576855</v>
       </c>
     </row>
     <row r="155">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>576462.1991413077</v>
+        <v>8725840.378324624</v>
       </c>
     </row>
     <row r="156">
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>718853.8477598313</v>
+        <v>10588013.9727364</v>
       </c>
     </row>
     <row r="157">
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>621112.7055753646</v>
+        <v>9076308.822795313</v>
       </c>
     </row>
     <row r="158">
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>527533.2408592424</v>
+        <v>8893685.823460329</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>628363.2630489535</v>
+        <v>9249222.002630973</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>532357.9908963176</v>
+        <v>8893581.90804678</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>712343.6301825559</v>
+        <v>10193881.4235075</v>
       </c>
     </row>
     <row r="162">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>807741.8207407633</v>
+        <v>11006257.33081382</v>
       </c>
     </row>
     <row r="163">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>812608.396494537</v>
+        <v>11299792.12991539</v>
       </c>
     </row>
     <row r="164">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>554460.3284645284</v>
+        <v>8601587.844438432</v>
       </c>
     </row>
     <row r="165">
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>697939.9379969026</v>
+        <v>11184962.99337892</v>
       </c>
     </row>
     <row r="166">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>677917.5532445463</v>
+        <v>10686456.03401181</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>569855.7318334681</v>
+        <v>8914084.584103623</v>
       </c>
     </row>
     <row r="168">
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>642129.3689005559</v>
+        <v>9779300.561359527</v>
       </c>
     </row>
     <row r="169">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>668702.9914661972</v>
+        <v>9745918.105763946</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>757057.4696353881</v>
+        <v>10345083.31715077</v>
       </c>
     </row>
     <row r="171">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>629889.448246895</v>
+        <v>8845385.148246275</v>
       </c>
     </row>
     <row r="172">
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>839485.4451306096</v>
+        <v>9594335.725724263</v>
       </c>
     </row>
     <row r="173">
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1013084.973496568</v>
+        <v>10849994.81901039</v>
       </c>
     </row>
     <row r="174">
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>792883.0617318479</v>
+        <v>10550503.414826</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>781012.3774716696</v>
+        <v>9928874.849504385</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>818783.4152908174</v>
+        <v>11615676.0504394</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>741945.9560924477</v>
+        <v>9542412.081819018</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>677674.7785722776</v>
+        <v>10695805.77559613</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>762017.4531862527</v>
+        <v>12654229.26670012</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>562927.6170839274</v>
+        <v>8083135.301651401</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>593940.6797459093</v>
+        <v>10675920.06717899</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>826379.3713238531</v>
+        <v>11570163.69298398</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>660827.8365872641</v>
+        <v>9855584.156693136</v>
       </c>
     </row>
     <row r="184">
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>678644.1103155967</v>
+        <v>9899077.596877847</v>
       </c>
     </row>
     <row r="185">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>653343.5919536609</v>
+        <v>9672346.917562291</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>710289.2684139682</v>
+        <v>10636513.84975219</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>513224.5065316312</v>
+        <v>9104931.159147894</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>621188.5941644511</v>
+        <v>9433922.085785443</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>652518.2191904759</v>
+        <v>10693436.24511915</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>744377.4961881097</v>
+        <v>10733661.20740696</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>681868.7281974701</v>
+        <v>9818389.522919852</v>
       </c>
     </row>
     <row r="192">
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>479654.3449670629</v>
+        <v>8107738.872583053</v>
       </c>
     </row>
     <row r="193">
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>449977.4576628006</v>
+        <v>8400094.697896801</v>
       </c>
     </row>
     <row r="194">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>686377.7509566236</v>
+        <v>9505400.245595492</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>768900.5885615014</v>
+        <v>11307127.70303901</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>623487.8791373954</v>
+        <v>9968092.805407654</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>619802.1512441156</v>
+        <v>8970305.718476944</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>607049.9454389915</v>
+        <v>8526013.525789617</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>726540.7738685363</v>
+        <v>9871768.832515327</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>746680.2535383065</v>
+        <v>11646471.47737947</v>
       </c>
     </row>
     <row r="201">
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>754190.5284570319</v>
+        <v>10701840.83037618</v>
       </c>
     </row>
     <row r="202">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>645890.55133642</v>
+        <v>8075378.010876664</v>
       </c>
     </row>
     <row r="203">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>743873.7938608017</v>
+        <v>10693881.5120764</v>
       </c>
     </row>
     <row r="204">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>807653.3206436803</v>
+        <v>9157294.123754991</v>
       </c>
     </row>
     <row r="205">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>712693.3363575834</v>
+        <v>11058170.02130222</v>
       </c>
     </row>
     <row r="206">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>592310.0322456207</v>
+        <v>8925901.647496341</v>
       </c>
     </row>
     <row r="207">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>513079.2702866833</v>
+        <v>7901046.292709615</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>642174.4792809776</v>
+        <v>9303617.231084</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>804619.7463006483</v>
+        <v>10506679.4006602</v>
       </c>
     </row>
     <row r="210">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>734218.483402748</v>
+        <v>8804277.018986445</v>
       </c>
     </row>
     <row r="211">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>604624.3197581189</v>
+        <v>8931963.122232158</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>766481.4765827749</v>
+        <v>11372704.02379096</v>
       </c>
     </row>
     <row r="213">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>569443.0694192571</v>
+        <v>9041365.707735643</v>
       </c>
     </row>
     <row r="214">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>714960.7876646313</v>
+        <v>10686630.54206263</v>
       </c>
     </row>
     <row r="215">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>666539.668783045</v>
+        <v>9834989.993497415</v>
       </c>
     </row>
     <row r="216">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>632394.5167505883</v>
+        <v>10419332.46039838</v>
       </c>
     </row>
     <row r="217">
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>790750.5128044686</v>
+        <v>10752664.48290242</v>
       </c>
     </row>
     <row r="218">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>757522.4094661592</v>
+        <v>11222812.98212858</v>
       </c>
     </row>
     <row r="219">
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>767410.2349681859</v>
+        <v>12030209.80805989</v>
       </c>
     </row>
     <row r="220">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>666523.221911306</v>
+        <v>10860145.53486385</v>
       </c>
     </row>
     <row r="221">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>692746.6954480699</v>
+        <v>9839515.695668858</v>
       </c>
     </row>
     <row r="222">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>793703.0114440229</v>
+        <v>11635256.79444204</v>
       </c>
     </row>
     <row r="223">
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>624731.9479188097</v>
+        <v>10072230.54786996</v>
       </c>
     </row>
     <row r="224">
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>905024.5854976978</v>
+        <v>12028742.66668079</v>
       </c>
     </row>
     <row r="225">
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>783174.5429589385</v>
+        <v>10818391.1725845</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>662552.3892447812</v>
+        <v>10348931.59775385</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>654849.9556803481</v>
+        <v>10096036.62804236</v>
       </c>
     </row>
     <row r="228">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>669323.7074015717</v>
+        <v>8972740.489650646</v>
       </c>
     </row>
     <row r="229">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>555053.5714777003</v>
+        <v>9197768.941406731</v>
       </c>
     </row>
     <row r="230">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>766719.6901289906</v>
+        <v>10428093.38588308</v>
       </c>
     </row>
     <row r="231">
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>683295.0579055289</v>
+        <v>10219185.96307169</v>
       </c>
     </row>
     <row r="232">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>651839.2401538618</v>
+        <v>9081276.446544122</v>
       </c>
     </row>
     <row r="233">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>864571.8983523751</v>
+        <v>10199893.40572901</v>
       </c>
     </row>
     <row r="234">
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>845414.0912380036</v>
+        <v>11076505.30113014</v>
       </c>
     </row>
     <row r="235">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>686588.8078303859</v>
+        <v>9272831.07289611</v>
       </c>
     </row>
     <row r="236">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>664559.4410901635</v>
+        <v>10737018.55342689</v>
       </c>
     </row>
     <row r="237">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>801852.8412725837</v>
+        <v>11225781.48411572</v>
       </c>
     </row>
     <row r="238">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>598320.6731707024</v>
+        <v>9508238.31137095</v>
       </c>
     </row>
     <row r="239">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>821878.2769884877</v>
+        <v>12510160.59722743</v>
       </c>
     </row>
     <row r="240">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>665325.4950708493</v>
+        <v>8634678.219725076</v>
       </c>
     </row>
     <row r="241">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>706700.49168506</v>
+        <v>10744676.87959694</v>
       </c>
     </row>
     <row r="242">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>718458.8459614771</v>
+        <v>9695229.470547663</v>
       </c>
     </row>
     <row r="243">
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>617280.8383779213</v>
+        <v>9860628.721870402</v>
       </c>
     </row>
     <row r="244">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>602943.8825719187</v>
+        <v>10561909.4502439</v>
       </c>
     </row>
     <row r="245">
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>514143.9168761434</v>
+        <v>8742891.355975389</v>
       </c>
     </row>
     <row r="246">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>478704.5025518895</v>
+        <v>8226461.486419019</v>
       </c>
     </row>
     <row r="247">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>753398.8514292466</v>
+        <v>10875666.92606066</v>
       </c>
     </row>
     <row r="248">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>775353.1538380377</v>
+        <v>10879008.16157637</v>
       </c>
     </row>
     <row r="249">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>698992.1225300159</v>
+        <v>10663756.00118605</v>
       </c>
     </row>
     <row r="250">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>791280.6293621778</v>
+        <v>11730838.08202067</v>
       </c>
     </row>
     <row r="251">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>482773.3183797627</v>
+        <v>9397631.992893489</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 4/objective_value.xlsx
+++ b/Resultados/Escenario 4/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>790131.9508668478</v>
+        <v>1381372.420472553</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1089834.146980548</v>
+        <v>1331175.398185599</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1193923.32761325</v>
+        <v>1304983.662428365</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>737041.393725646</v>
+        <v>1296398.823928755</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>744548.3797598773</v>
+        <v>1301345.480533996</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>747194.8909163477</v>
+        <v>1256870.135244087</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1260884.542819093</v>
+        <v>1262092.408059028</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1186547.737447625</v>
+        <v>1238332.264978822</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>943265.6378213351</v>
+        <v>1199383.340796534</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>934740.7327899963</v>
+        <v>1171056.310907773</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>917036.9877309564</v>
+        <v>1159396.960882966</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>896695.1577330172</v>
+        <v>1144327.587817284</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>885817.2199442543</v>
+        <v>1114025.275982745</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>859749.1884156278</v>
+        <v>1104134.762481503</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>853596.2571124608</v>
+        <v>1089644.846901889</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>838646.2098058265</v>
+        <v>1073196.250031276</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>818718.2458706783</v>
+        <v>1058637.761087272</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>808964.8879098149</v>
+        <v>1053350.901315019</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>793269.655566847</v>
+        <v>1045052.8827887</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>785668.1788490571</v>
+        <v>1038742.507660629</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>778661.4417504523</v>
+        <v>1034890.053309798</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>772243.4269084991</v>
+        <v>1030415.939512801</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>765747.5330508668</v>
+        <v>1025486.54356011</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>759614.6223966294</v>
+        <v>1021026.697955386</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>756366.6856608358</v>
+        <v>1021026.697955386</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>753085.6372338922</v>
+        <v>1021026.697955384</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>750587.2093127029</v>
+        <v>1021026.697955371</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>748830.5053484149</v>
+        <v>1021026.697955394</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>748515.1812598483</v>
+        <v>1021026.649046733</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,1687 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>748515.1812598483</v>
+        <v>1021026.69795539</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1021026.6808581</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1021026.659157651</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1021026.673117266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1021026.636777082</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1021026.687229845</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1021026.680858084</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1021026.670736698</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1021026.680967659</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1021026.661610881</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1021026.672685406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1021026.678931232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1021026.680022619</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1021026.680967663</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1021026.67311727</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1021026.680022619</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1021026.687943932</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1021026.681632773</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1021026.684720456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1021026.663729736</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1021026.664803313</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1021026.645125085</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1021026.638810391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1021026.691173187</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1021026.689040193</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1021026.678931232</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1021026.687943932</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1021026.685004368</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1021026.678726009</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1021026.67311727</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1021026.680022619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1021026.688963983</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1021026.685004368</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1021026.680022619</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1021026.681632773</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1021026.684720456</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1021026.681632773</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1021026.666734762</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1021026.665951618</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1021026.644585832</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1021026.655660237</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1021026.690114717</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1021026.678758434</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1021026.690098662</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1021026.680967663</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1021026.662915119</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1021026.670736701</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1021026.687943932</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1021026.670736701</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1021026.680967663</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1021026.681632773</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1021026.665951618</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1021026.665951618</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1021026.661732746</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1021026.634562262</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1021026.636777086</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1021026.690114717</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1021026.678758434</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1021026.690098662</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1021026.680967663</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1021026.662915119</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1021026.678955722</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1021026.670736701</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1021026.675325921</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1021026.687943932</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1021026.687229849</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1021026.680858088</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1021026.670736701</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1021026.680967663</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1021026.659157655</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1021026.681632773</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1021026.678562206</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1021026.665951618</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1021026.665951618</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1021026.661732746</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1021026.634562262</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Escenario 4/objective_value.xlsx
+++ b/Resultados/Escenario 4/objective_value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1381372.420472553</v>
+        <v>1135085.074488718</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1331175.398185599</v>
+        <v>1113611.899972976</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1304983.662428365</v>
+        <v>1091500.204769168</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1296398.823928755</v>
+        <v>1077292.15374657</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1301345.480533996</v>
+        <v>1061608.077893189</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1256870.135244087</v>
+        <v>1047675.889926379</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1262092.408059028</v>
+        <v>1036969.929585193</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1238332.264978822</v>
+        <v>1028969.505881709</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1199383.340796534</v>
+        <v>1023397.014016493</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1171056.310907773</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1159396.960882966</v>
+        <v>1021026.649046737</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1144327.587817284</v>
+        <v>1021026.649046761</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1114025.275982745</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1104134.762481503</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1089644.846901889</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1073196.250031276</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1058637.761087272</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1053350.901315019</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1045052.8827887</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1038742.507660629</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1034890.053309798</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1030415.939512801</v>
+        <v>1021026.64904673</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1025486.54356011</v>
+        <v>1021026.649046761</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1021026.697955386</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1021026.697955386</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1021026.697955384</v>
+        <v>1018032.453822305</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1021026.697955371</v>
+        <v>1013241.786712166</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1021026.697955394</v>
+        <v>1007332.377346099</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1021026.649046733</v>
+        <v>1003339.145471186</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1021026.69795539</v>
+        <v>993168.0955892608</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1021026.6808581</v>
+        <v>1045394.221283729</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1021026.659157651</v>
+        <v>1037263.249638612</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1021026.673117266</v>
+        <v>1033526.668041556</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1021026.636777082</v>
+        <v>1028887.503025543</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1021026.687229845</v>
+        <v>1024142.148064597</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1021026.680858084</v>
+        <v>1021026.649046743</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1021026.670736698</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1021026.680967659</v>
+        <v>1021026.649046724</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1021026.661610881</v>
+        <v>1021026.649046761</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1021026.672685406</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1021026.678931232</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1021026.680967663</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1021026.636777086</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.649046735</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1021026.687943932</v>
+        <v>1021026.649046761</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1021026.678562206</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1021026.678562206</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1021026.681632773</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1021026.684720456</v>
+        <v>1018121.43322166</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1021026.663729736</v>
+        <v>1012955.016994963</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1021026.664803313</v>
+        <v>1007554.741588999</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1021026.645125085</v>
+        <v>1003104.930700942</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1021026.638810391</v>
+        <v>993424.6110917014</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1021026.691173187</v>
+        <v>1044599.52016539</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1021026.636777086</v>
+        <v>1038683.854009311</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1021026.680858088</v>
+        <v>1032859.768279946</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1021026.659157655</v>
+        <v>1028987.251785778</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1021026.689040193</v>
+        <v>1024040.941532835</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1021026.678931232</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1021026.687943932</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1021026.678726009</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1021026.67311727</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1021026.688963983</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1021026.685004368</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1021026.680022619</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1021026.681632773</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1021026.678562206</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1021026.684720456</v>
+        <v>1021026.649046749</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1021026.681632773</v>
+        <v>1018041.10822166</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1021026.666734762</v>
+        <v>1012955.016994963</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1021026.665951618</v>
+        <v>1007635.066588999</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1021026.644585832</v>
+        <v>1003024.605700941</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1021026.655660237</v>
+        <v>993504.9360917013</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1021026.636777086</v>
+        <v>1044604.181110324</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1021026.636777086</v>
+        <v>1038688.632433563</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1021026.678955722</v>
+        <v>1032870.654470343</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1021026.690114717</v>
+        <v>1028888.972965732</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1021026.680858088</v>
+        <v>1024118.913701818</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.675325917</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1021026.678758434</v>
+        <v>1021026.670736697</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.688963979</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.659157655</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1021026.690098662</v>
+        <v>1021026.685004368</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1021026.680967663</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1021026.662915119</v>
+        <v>1021026.688963983</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1021026.678955722</v>
+        <v>1021026.677651484</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1021026.670736701</v>
+        <v>1021026.680858088</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1021026.675325921</v>
+        <v>1021026.680967663</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1021026.687943932</v>
+        <v>1021026.688963983</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1021026.687229849</v>
+        <v>1021026.680022619</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1021026.680858088</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1021026.670736701</v>
+        <v>1021026.636777087</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1021026.680967663</v>
+        <v>1021026.675325921</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1021026.659157655</v>
+        <v>1021026.675325921</v>
       </c>
     </row>
     <row r="114">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1021026.678562206</v>
+        <v>1018117.661115856</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1021026.665951618</v>
+        <v>1013166.450756894</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1021026.665951618</v>
+        <v>1007318.203848096</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1021026.661732746</v>
+        <v>1003337.676310892</v>
       </c>
     </row>
     <row r="121">
@@ -2127,427 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1021026.634562262</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>121</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1021026.636777086</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>122</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1021026.636777086</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>123</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1021026.678955722</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>124</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1021026.690114717</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>125</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1021026.680858088</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>126</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1021026.687229849</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>127</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1021026.678758434</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>128</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1021026.659157655</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>129</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1021026.678955722</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>130</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1021026.680858088</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>131</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1021026.690098662</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>132</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1021026.680967663</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>133</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1021026.662915119</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>134</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1021026.678955722</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>135</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1021026.670736701</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>136</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1021026.675325921</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>137</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1021026.687943932</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>138</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1021026.687229849</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>139</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1021026.680858088</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>140</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1021026.670736701</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>141</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1021026.680967663</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>142</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1021026.659157655</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>143</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1021026.681632773</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>144</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1021026.678562206</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>145</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1021026.678562206</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>146</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1021026.678562206</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>147</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1021026.665951618</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>148</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1021026.665951618</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>149</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1021026.661732746</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>150</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1021026.634562262</v>
+        <v>993240.7540346546</v>
       </c>
     </row>
   </sheetData>
